--- a/biology/Zoologie/Amphibiens_de_Madagascar/Amphibiens_de_Madagascar.xlsx
+++ b/biology/Zoologie/Amphibiens_de_Madagascar/Amphibiens_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les amphibiens de Madagascar sont représentés exclusivement par des espèces de l'ordre des anoures.
-Les espèces enregistrées sont au nombre de 285[1], mais on suppose qu'il y a encore beaucoup d'espèces non classées.
+Les espèces enregistrées sont au nombre de 285, mais on suppose qu'il y a encore beaucoup d'espèces non classées.
 Ces espèces appartiennent à cinq familles différentes :
 Discoglossidae (1 espèces) ;
 Hyperoliidae (11 espèces) ;
@@ -523,6 +535,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,6 +619,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -627,6 +647,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
